--- a/src/Client/wwwroot/xlstemplate/BDT-TH01.xlsx
+++ b/src/Client/wwwroot/xlstemplate/BDT-TH01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\source\repos\NewBalance\src\Client\wwwroot\xlstemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DD5E72-AB61-4335-A66B-E7BAB48211FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3501ABEB-1691-4702-9E1E-6CEBED52E83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>STT</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>TỔNG CÔNG TY CHUYỂN PHÁT NHANH BƯU ĐIỆN - CÔNG TY CỔ PHẦN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BẢNG KÊ SỐ: </t>
   </si>
   <si>
     <t>Mã số thuế:</t>
@@ -131,117 +128,6 @@
     <t>(10=8+9)</t>
   </si>
   <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Bưu gửi liên tỉnh</t>
-  </si>
-  <si>
-    <t>Bưu gửi nội tỉnh, BĐT chấp nhận, khai thác và phát</t>
-  </si>
-  <si>
-    <t>Bưu gửi nội tỉnh, BĐT chấp nhận và phát, EMS khai thác</t>
-  </si>
-  <si>
-    <t>Bưu gửi nội tỉnh EMS thu cước tập trung</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, là EMS thu cước tập trung, có dịch vụ EMSC/PPA, ETL</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, là EMS thu cước tập trung, có dịch vụ EMSC/PPA, EHN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, là EMS thư đồng giá, có dịch vụ TCB, TNC</t>
-  </si>
-  <si>
-    <t>Bưu gửi nội tỉnh, BĐT chấp nhận, EMS khai thác và phát</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, không qua KTV EMS, Mã BC phát không phải EMS, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ETL</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, không qua KTV EMS, Mã BC phát không phải EMS, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ EHN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát không phải EMS, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ETL</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát không phải EMS, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ EHN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát là EMS, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ETL</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát là EMS, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ EHN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, không qua KTV EMS, Mã BC phát không phải EMS, không phải TMĐT ĐG, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ENN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát không phải EMS, không phải TMĐT ĐG, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ENN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát là EMS, không phải TMĐT ĐG, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ENN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, là EMS thu cước tập trung, có dịch vụ EMSC/PPA, ENN, TMD</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, có qua KTV EMS, Mã BC phát không phải là EMS, không phải TMĐT ĐG, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ TMD</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả, không qua KTV EMS, Mã BC phát không phải là EMS, không phải TMĐT ĐG, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ TMD</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả, là EMS thư đồng giá, có dịch vụ TCB, TNC</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả, là EMS thu cước tập trung, có dịch vụ EMSC/PPA, ETL</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả, là EMS thu cước tập trung, có dịch vụ EMSC/PPA, EHN</t>
-  </si>
-  <si>
-    <t>Bưu gửi EMS thu cước tập trung</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ETL</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả, không phải TMĐT, không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ EHN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả,  không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ ENN</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả,  là EMS thu cước tập trung có dịch vụ EMSC/PPA</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả,  không phải EMS thu cước tập trung, không phải thư đồng giá, có dịch vụ TMD</t>
-  </si>
-  <si>
-    <t>Bưu gửi Chuyển hoàn</t>
-  </si>
-  <si>
-    <t>Bưu gửi Quốc tế Mã nước trả &lt;&gt; 'VN'</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận = Mã tỉnh trả</t>
-  </si>
-  <si>
-    <t>Bưu gửi Chuyển hoàn liên tỉnh</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả, là TMĐT có dịch vụ ENN, TMD</t>
-  </si>
-  <si>
-    <t>Mã tỉnh nhận &lt;&gt; Mã tỉnh trả , không phải là TMĐT</t>
-  </si>
-  <si>
-    <t>BẢNG XÁC NHẬN SẢN LƯỢNG, GIÁ VỐN, THÙ LAO PHÁT TRẢ DỊCH VỤ EMS THÁNG ... NĂM …</t>
-  </si>
-  <si>
     <t>{{item.STT}}</t>
   </si>
   <si>
@@ -273,6 +159,18 @@
   </si>
   <si>
     <t>{{item.GHI_CHU}}</t>
+  </si>
+  <si>
+    <t>BẢNG KÊ SỐ: {{infor.So_Bang_Ke}}</t>
+  </si>
+  <si>
+    <t>BẢNG XÁC NHẬN SẢN LƯỢNG, GIÁ VỐN, THÙ LAO PHÁT TRẢ DỊCH VỤ EMS THÁNG {{infor.Thang}} NĂM {infor.Nam}</t>
+  </si>
+  <si>
+    <t>{{infor.MST}}</t>
+  </si>
+  <si>
+    <t>{{infor.Dia_Chi}}</t>
   </si>
 </sst>
 </file>
@@ -283,7 +181,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,12 +238,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -378,44 +270,16 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -501,23 +365,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -537,17 +392,17 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -567,7 +422,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
@@ -601,40 +456,66 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -655,66 +536,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1038,10 +859,10 @@
     <tabColor theme="3" tint="0.79998168889431442"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O110"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:K15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1050,177 +871,172 @@
     <col min="2" max="2" width="44.81640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.26953125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.1796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" style="1" customWidth="1"/>
     <col min="7" max="8" width="18.1796875" style="7" customWidth="1"/>
     <col min="9" max="9" width="16.7265625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.1796875" style="7" customWidth="1"/>
     <col min="11" max="11" width="20.1796875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="190.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="1"/>
-    <col min="14" max="14" width="17.7265625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1796875" style="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="35" t="s">
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+    </row>
+    <row r="2" spans="1:11" s="5" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="4"/>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="N2" s="6"/>
-    </row>
-    <row r="3" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="11"/>
       <c r="H4" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="H5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="H5" s="36" t="s">
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:14" s="14" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="41" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="42"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
+      <c r="B9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="D11" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="E11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="49" t="s">
+      <c r="F11" s="34"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52" t="s">
+      <c r="I11" s="37"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="45" t="s">
-        <v>8</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="63" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="16" t="s">
+      <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="G12" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>1</v>
       </c>
       <c r="I12" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="J12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K12" s="46"/>
-      <c r="L12" s="40"/>
-    </row>
-    <row r="13" spans="1:14" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="30"/>
+    </row>
+    <row r="13" spans="1:11" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>2</v>
       </c>
@@ -1228,19 +1044,19 @@
         <v>3</v>
       </c>
       <c r="C13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="G13" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>31</v>
       </c>
       <c r="H13" s="21" t="s">
         <v>4</v>
@@ -1249,51 +1065,48 @@
         <v>5</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1305,11 +1118,8 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1321,11 +1131,8 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1337,11 +1144,8 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1353,11 +1157,8 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1369,11 +1170,8 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1385,11 +1183,8 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1401,11 +1196,8 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="34" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1417,11 +1209,8 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="25" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1433,11 +1222,8 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="31" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1449,11 +1235,8 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:11" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1465,11 +1248,8 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:11" s="24" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1481,11 +1261,8 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" s="25" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:11" s="23" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1497,11 +1274,8 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="25" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:11" s="23" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1513,20 +1287,11 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L29" s="32"/>
-    </row>
-    <row r="30" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="32"/>
-    </row>
-    <row r="31" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L31" s="32"/>
-    </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:11" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1538,9 +1303,8 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:11" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1552,11 +1316,8 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" s="26" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:11" s="24" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1568,11 +1329,8 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:11" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1584,11 +1342,8 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:11" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1600,11 +1355,8 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:11" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1616,11 +1368,8 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="25" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:11" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1632,11 +1381,8 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="25" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1649,7 +1395,7 @@
       <c r="J39" s="7"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:14" s="25" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" s="23" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1662,10 +1408,8 @@
       <c r="J40" s="7"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:14" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L41" s="23"/>
-    </row>
-    <row r="42" spans="1:14" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:11" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -1677,11 +1421,8 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -1693,12 +1434,8 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="N43" s="28"/>
-    </row>
-    <row r="44" spans="1:14" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -1710,11 +1447,8 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="31" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:11" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -1726,15 +1460,8 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="29" t="e">
-        <f>IF(#REF!=0,"Điền cước tập trung","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -1746,11 +1473,8 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -1762,11 +1486,8 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" s="25" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:11" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -1778,27 +1499,13 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="N48" s="29"/>
-    </row>
-    <row r="49" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L49" s="32"/>
-    </row>
-    <row r="50" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L50" s="32"/>
-    </row>
-    <row r="51" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L51" s="32"/>
-    </row>
-    <row r="52" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L52" s="32"/>
-    </row>
-    <row r="53" spans="1:12" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L53" s="32"/>
-    </row>
-    <row r="54" spans="1:12" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="50" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="51" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="52" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="54" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -1810,11 +1517,8 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" s="26" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="1:11" s="24" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -1826,11 +1530,8 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -1842,11 +1543,8 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="1"/>
-      <c r="L56" s="31" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="26" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="1:11" s="24" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -1858,9 +1556,8 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="1"/>
-      <c r="L57" s="33"/>
-    </row>
-    <row r="58" spans="1:12" s="26" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="1:11" s="24" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1872,23 +1569,12 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
       <c r="K58" s="1"/>
-      <c r="L58" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L59" s="32"/>
-    </row>
-    <row r="60" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L60" s="32"/>
-    </row>
-    <row r="61" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L61" s="32"/>
-    </row>
-    <row r="62" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L62" s="32"/>
-    </row>
-    <row r="63" spans="1:12" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="60" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="61" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:11" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -1900,11 +1586,8 @@
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
       <c r="K63" s="1"/>
-      <c r="L63" s="34" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="1:11" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -1916,16 +1599,9 @@
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
       <c r="K64" s="1"/>
-      <c r="L64" s="34" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L65" s="31" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" s="25" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="66" spans="1:11" s="23" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -1937,11 +1613,8 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="1"/>
-      <c r="L66" s="34" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" s="26" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="1:11" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -1953,11 +1626,8 @@
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
       <c r="K67" s="1"/>
-      <c r="L67" s="31" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="26" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="1:11" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -1969,22 +1639,19 @@
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
       <c r="K68" s="1"/>
-      <c r="L68" s="31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="70" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="71" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="72" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="73" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="75" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="76" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="77" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="78" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="80" spans="1:12" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="69" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="70" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="71" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="72" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="75" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="76" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="77" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="78" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="79" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="81" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="82" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="83" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2001,7 +1668,7 @@
       <c r="J84" s="7"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="1:11" s="25" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" s="23" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2016,7 +1683,7 @@
     </row>
     <row r="86" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="88" spans="1:11" s="25" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" s="23" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2049,7 +1716,7 @@
     <row r="94" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="96" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="97" spans="1:15" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2062,10 +1729,10 @@
       <c r="J97" s="7"/>
       <c r="K97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="99" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="100" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:15" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="99" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="100" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:11" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2078,10 +1745,10 @@
       <c r="J101" s="7"/>
       <c r="K101" s="1"/>
     </row>
-    <row r="102" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="103" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="104" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="105" spans="1:15" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="103" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="104" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:11" s="15" customFormat="1" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2094,18 +1761,20 @@
       <c r="J105" s="7"/>
       <c r="K105" s="1"/>
     </row>
-    <row r="106" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="107" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="108" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="109" spans="1:15" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="110" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N110" s="27"/>
-      <c r="O110" s="30"/>
-    </row>
+    <row r="106" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="107" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="108" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="109" spans="1:11" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="110" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A13:K13" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="16">
-    <mergeCell ref="L11:L12"/>
+  <mergeCells count="15">
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="G2:K2"/>
     <mergeCell ref="A7:K7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A11:A12"/>
@@ -2115,12 +1784,6 @@
     <mergeCell ref="E11:G11"/>
     <mergeCell ref="H11:J11"/>
     <mergeCell ref="K11:K12"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="G2:K2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.5" top="0.5" bottom="0.5" header="0" footer="0"/>
